--- a/TrafficAccidentsAccordingtotheCauses(DS).xlsx
+++ b/TrafficAccidentsAccordingtotheCauses(DS).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD88060-B204-4B97-AAAC-E40E55378F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2DC845-811E-405A-90EF-19B87B184C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>CAUSE</t>
   </si>
   <si>
-    <t>No. of Cases</t>
-  </si>
-  <si>
     <t xml:space="preserve">YEAR </t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Failure to Yield</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,12 +213,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,16 +513,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -539,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>963</v>
@@ -551,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>330</v>
@@ -563,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>283</v>
@@ -575,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>260</v>
@@ -587,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>87</v>
@@ -599,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
         <v>17</v>
@@ -611,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
         <v>735</v>
@@ -623,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>355</v>
@@ -635,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
         <v>95</v>
@@ -647,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
         <v>82</v>
@@ -659,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1">
         <v>70</v>
@@ -671,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1">
         <v>8</v>
@@ -683,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1">
         <v>248</v>
@@ -695,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1">
         <v>178</v>
@@ -707,7 +701,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
         <v>64</v>
@@ -719,7 +713,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1">
         <v>14</v>
@@ -731,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1">
         <v>11</v>
@@ -743,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
@@ -755,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1">
         <v>91</v>
@@ -767,7 +761,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1">
         <v>48</v>
@@ -779,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1">
         <v>28</v>
@@ -791,7 +785,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
@@ -803,7 +797,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -815,7 +809,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -827,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1">
         <v>25</v>
@@ -839,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1">
         <v>11</v>
@@ -851,7 +845,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -863,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -875,7 +869,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -887,7 +881,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -899,7 +893,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="1">
         <v>44</v>
@@ -911,7 +905,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1">
         <v>39</v>
@@ -923,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1">
         <v>33</v>
@@ -935,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1">
         <v>6</v>
@@ -947,7 +941,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="1">
         <v>4</v>
@@ -959,7 +953,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -967,73 +961,73 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
-      <c r="B38" s="8" t="s">
-        <v>17</v>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="9">
+        <v>18</v>
+      </c>
+      <c r="D38" s="1">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
-      <c r="B39" s="8" t="s">
-        <v>17</v>
+      <c r="B39" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="9">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
-      <c r="B40" s="8" t="s">
-        <v>17</v>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="9">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
-      <c r="B41" s="8" t="s">
-        <v>17</v>
+      <c r="B41" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="9">
+        <v>15</v>
+      </c>
+      <c r="D41" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
-      <c r="B42" s="8" t="s">
-        <v>17</v>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="9">
+        <v>14</v>
+      </c>
+      <c r="D42" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
-      <c r="B43" s="8" t="s">
-        <v>17</v>
+      <c r="B43" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="9">
+        <v>11</v>
+      </c>
+      <c r="D43" s="1">
         <v>3</v>
       </c>
     </row>
